--- a/data/georgia_census/mcxeta-mtianeti/yazbegi/population_total.xlsx
+++ b/data/georgia_census/mcxeta-mtianeti/yazbegi/population_total.xlsx
@@ -1367,13 +1367,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2F4B700-717A-492D-9179-7846C16DAE9F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D37359FC-3F6D-4A5C-9A15-FA7222BD6C6D}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D513C4C-8FA8-45F1-8D64-0642992D129D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EDB5EF7-203E-4912-9F4E-DD12977B44AA}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ECDA6A23-9D6E-499B-9FA2-01CEEC0D88FB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5F45EF6-C3C4-4172-8546-2BAC6882E699}"/>
 </file>